--- a/StructureDefinition-HPA-Model.xlsx
+++ b/StructureDefinition-HPA-Model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T10:42:27+08:00</t>
+    <t>2025-04-22T13:25:09+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HPA-Model.xlsx
+++ b/StructureDefinition-HPA-Model.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/HPA-Model</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/HPA-Model</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T13:25:09+08:00</t>
+    <t>2025-06-11T16:49:32+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
